--- a/medsource/resources/Formato.xlsx
+++ b/medsource/resources/Formato.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Escritorio\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNAL\Ingesoft II\medsourceback\medsource\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BE4F81-E3C4-422F-A531-C9EC9837E8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D1706-6AB5-42AC-B682-FF2DFC898BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">CENTRO DE ATENCIÓN: </t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>PROCEDIMIENTOS REALIZADOS</t>
+  </si>
+  <si>
+    <t>Total UVR</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +521,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -898,7 +907,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -937,9 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,7 +1000,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1012,14 +1018,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="86">
@@ -1447,13 +1459,13 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A2:O560"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="20" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="19" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
@@ -1470,22 +1482,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1504,51 +1516,51 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="G5" s="43" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="G5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -1556,12 +1568,12 @@
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="28"/>
       <c r="H7" s="2"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1570,14 +1582,14 @@
       <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="G8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="G8" s="28"/>
       <c r="H8" s="2"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1671,1120 +1683,1125 @@
       <c r="N14" s="11"/>
     </row>
     <row r="15" spans="1:14" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="24"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="24"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="24"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="24"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="24"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="23"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="24"/>
+    <row r="25" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="23"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="24"/>
+    <row r="26" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="24"/>
+    <row r="27" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="23"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="24"/>
+    <row r="28" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="24"/>
+    <row r="29" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="24"/>
+    <row r="30" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="29"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="23"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="24"/>
+    <row r="31" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="29"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="24"/>
+    <row r="32" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="29"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="23"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="24"/>
+    <row r="33" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="24"/>
+    <row r="34" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="29"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="24"/>
+    <row r="35" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="29"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="23"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="24"/>
+    <row r="36" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="29"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
-      <c r="B37" s="24"/>
+    <row r="37" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="29"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="23"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="24"/>
+    <row r="38" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="29"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="24"/>
+    <row r="39" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="24"/>
+    <row r="40" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="24"/>
+    <row r="41" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30"/>
-      <c r="B42" s="24"/>
+    <row r="42" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
-      <c r="B43" s="24"/>
+    <row r="43" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30"/>
-      <c r="B44" s="24"/>
+    <row r="44" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="29"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="29"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="24"/>
+    <row r="46" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="24"/>
+    <row r="47" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="29"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="23"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="24"/>
+    <row r="48" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="29"/>
+      <c r="B48" s="23"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="23"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="24"/>
+    <row r="49" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="29"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="24"/>
+    <row r="50" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="29"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="24"/>
+    <row r="51" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="29"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="24"/>
+    <row r="52" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="29"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="24"/>
+    <row r="53" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="29"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="24"/>
+    <row r="54" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="29"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30"/>
-      <c r="B55" s="24"/>
+    <row r="55" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="29"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30"/>
-      <c r="B56" s="24"/>
+    <row r="56" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="29"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
-      <c r="B57" s="24"/>
+    <row r="57" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="29"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="30"/>
-      <c r="B58" s="24"/>
+    <row r="58" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="29"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="24"/>
+    <row r="59" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="29"/>
+      <c r="B59" s="23"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
-      <c r="B60" s="24"/>
+    <row r="60" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="29"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="22"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30"/>
-      <c r="B61" s="24"/>
+    <row r="61" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="29"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="22"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
-      <c r="B62" s="24"/>
+    <row r="62" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="29"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="24"/>
+    <row r="63" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="29"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="22"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="30"/>
-      <c r="B64" s="24"/>
+    <row r="64" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="29"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="22"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
-      <c r="B65" s="24"/>
+    <row r="65" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="29"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="22"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
-      <c r="B66" s="24"/>
+    <row r="66" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="29"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="30"/>
-      <c r="B67" s="24"/>
+    <row r="67" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="29"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="30"/>
-      <c r="B68" s="24"/>
+    <row r="68" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="29"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="22"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="30"/>
-      <c r="B69" s="24"/>
+    <row r="69" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="29"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="22"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="30"/>
-      <c r="B70" s="24"/>
+    <row r="70" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="29"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="30"/>
-      <c r="B71" s="24"/>
+    <row r="71" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="29"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="24"/>
+    <row r="72" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="23"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="30"/>
-      <c r="B73" s="24"/>
+    <row r="73" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="30"/>
-      <c r="B74" s="24"/>
+    <row r="74" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="30"/>
-      <c r="B75" s="24"/>
+    <row r="75" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="22"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="30"/>
-      <c r="B76" s="24"/>
+    <row r="76" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="30"/>
-      <c r="B77" s="24"/>
+    <row r="77" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="30"/>
-      <c r="B78" s="24"/>
+    <row r="78" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="30"/>
-      <c r="B79" s="24"/>
+    <row r="79" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="29"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="30"/>
-      <c r="B80" s="24"/>
+    <row r="80" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="29"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="30"/>
-      <c r="B81" s="24"/>
+    <row r="81" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="29"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="30"/>
-      <c r="B82" s="24"/>
+    <row r="82" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="22"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="30"/>
-      <c r="B83" s="24"/>
+    <row r="83" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="29"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="30"/>
-      <c r="B84" s="24"/>
+    <row r="84" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="29"/>
+      <c r="B84" s="23"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="30"/>
-      <c r="B85" s="24"/>
+    <row r="85" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="29"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="30"/>
-      <c r="B86" s="24"/>
+    <row r="86" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="29"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="30"/>
-      <c r="B87" s="24"/>
+    <row r="87" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="29"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="30"/>
-      <c r="B88" s="24"/>
+    <row r="88" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="29"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="22"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="30"/>
-      <c r="B89" s="24"/>
+    <row r="89" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="29"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="22"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="30"/>
-      <c r="B90" s="24"/>
+    <row r="90" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="29"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="22"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="30"/>
-      <c r="B91" s="24"/>
+    <row r="91" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="29"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="30"/>
-      <c r="B92" s="24"/>
+    <row r="92" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="29"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="30"/>
-      <c r="B93" s="24"/>
+    <row r="93" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="29"/>
+      <c r="B93" s="23"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="30"/>
-      <c r="B94" s="24"/>
+    <row r="94" spans="1:7" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="29"/>
+      <c r="B94" s="23"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22"/>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="30"/>
-      <c r="B95" s="24"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="23"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="22"/>
     </row>
     <row r="96" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="30"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="29"/>
+      <c r="B96" s="23"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="22"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="24"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="23"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="23"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="30"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="29"/>
+      <c r="B98" s="23"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="23"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="22"/>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="30"/>
-      <c r="B99" s="24"/>
+      <c r="A99" s="29"/>
+      <c r="B99" s="23"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="23"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="30"/>
-      <c r="B100" s="24"/>
+      <c r="A100" s="29"/>
+      <c r="B100" s="23"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="30"/>
-      <c r="B101" s="24"/>
+      <c r="A101" s="29"/>
+      <c r="B101" s="23"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="23"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="30"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="29"/>
+      <c r="B102" s="23"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="23"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="30"/>
-      <c r="B103" s="24"/>
+      <c r="A103" s="29"/>
+      <c r="B103" s="23"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="22"/>
     </row>
     <row r="104" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="30"/>
-      <c r="B104" s="24"/>
+      <c r="A104" s="29"/>
+      <c r="B104" s="23"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
     </row>
     <row r="105" spans="1:7" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="30"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="23"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="22"/>
     </row>
     <row r="106" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="30"/>
-      <c r="B106" s="24"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="23"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="22"/>
     </row>
     <row r="107" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="29"/>
+      <c r="B107" s="23"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="22"/>
     </row>
     <row r="108" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="30"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="29"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="22"/>
     </row>
     <row r="109" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="29"/>
+      <c r="B109" s="23"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="23"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="22"/>
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="30"/>
-      <c r="B110" s="24"/>
+      <c r="A110" s="29"/>
+      <c r="B110" s="23"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="23"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="30"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="29"/>
+      <c r="B111" s="23"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="23"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="22"/>
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="30"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="29"/>
+      <c r="B112" s="23"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="23"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="22"/>
     </row>
     <row r="113" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="30"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="29"/>
+      <c r="B113" s="23"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="23"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="22"/>
     </row>
     <row r="114" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="30"/>
-      <c r="B114" s="24"/>
+      <c r="A114" s="29"/>
+      <c r="B114" s="23"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="23"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="22"/>
     </row>
     <row r="115" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="30"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="29"/>
+      <c r="B115" s="23"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="23"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="22"/>
     </row>
     <row r="116" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="30"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="29"/>
+      <c r="B116" s="23"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="23"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="22"/>
     </row>
     <row r="117" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="30"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="23"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="23"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="22"/>
     </row>
     <row r="118" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="30"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="29"/>
+      <c r="B118" s="23"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="23"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="22"/>
     </row>
     <row r="119" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="30"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="29"/>
+      <c r="B119" s="23"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="23"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="22"/>
     </row>
     <row r="120" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="30"/>
-      <c r="B120" s="24"/>
+      <c r="A120" s="29"/>
+      <c r="B120" s="23"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="23"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="22"/>
     </row>
     <row r="121" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="30"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="29"/>
+      <c r="B121" s="23"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="23"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="22"/>
     </row>
     <row r="122" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="30"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="29"/>
+      <c r="B122" s="23"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="23"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="22"/>
     </row>
     <row r="123" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="30"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="23"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="23"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22"/>
     </row>
     <row r="124" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="29"/>
+      <c r="B124" s="23"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="22"/>
     </row>
     <row r="125" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="30"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="29"/>
+      <c r="B125" s="23"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="23"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="22"/>
     </row>
     <row r="126" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="30"/>
-      <c r="B126" s="24"/>
+      <c r="A126" s="29"/>
+      <c r="B126" s="23"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="23"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="22"/>
     </row>
     <row r="127" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="30"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="23"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="23"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="22"/>
     </row>
     <row r="128" spans="1:6" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="30"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="29"/>
+      <c r="B128" s="23"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="23"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="22"/>
     </row>
     <row r="129" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="30"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="29"/>
+      <c r="B129" s="23"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="23"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="22"/>
     </row>
     <row r="130" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="30"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="29"/>
+      <c r="B130" s="23"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="23"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="22"/>
     </row>
     <row r="131" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="30"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="23"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="23"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="22"/>
     </row>
     <row r="132" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="30"/>
-      <c r="B132" s="24"/>
+      <c r="A132" s="29"/>
+      <c r="B132" s="23"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="23"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="22"/>
     </row>
     <row r="133" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A133" s="30"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="29"/>
+      <c r="B133" s="23"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
       <c r="E133" s="13"/>
       <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="30"/>
-      <c r="B134" s="24"/>
+      <c r="A134" s="29"/>
+      <c r="B134" s="23"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
       <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="30"/>
-      <c r="B135" s="24"/>
+      <c r="A135" s="29"/>
+      <c r="B135" s="23"/>
       <c r="C135" s="13"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="25"/>
-      <c r="F135" s="34"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="29"/>
+      <c r="B136" s="23"/>
       <c r="C136" s="13"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="23"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="22"/>
     </row>
     <row r="137" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="29"/>
+      <c r="B137" s="23"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="29"/>
+      <c r="B138" s="23"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
       <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="29"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
       <c r="E139" s="13"/>
       <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="29"/>
+      <c r="B140" s="23"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
       <c r="E140" s="13"/>
       <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="18"/>
+      <c r="A141" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="49"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="50">
+        <f>SUM(F16:F140)</f>
+        <v>0</v>
+      </c>
       <c r="G141" s="18"/>
       <c r="H141" s="18"/>
       <c r="I141" s="18"/>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
       <c r="L141" s="18"/>
-      <c r="M141" s="39"/>
-      <c r="N141" s="28"/>
+      <c r="M141" s="38"/>
+      <c r="N141" s="27"/>
     </row>
     <row r="142" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="20"/>
+      <c r="A142" s="19"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -2797,14 +2814,14 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
-      <c r="N142" s="26"/>
+      <c r="N142" s="25"/>
     </row>
     <row r="143" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="20"/>
+      <c r="A143" s="19"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="31"/>
+      <c r="E143" s="30"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -2816,7 +2833,7 @@
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="20"/>
+      <c r="A144" s="19"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -2832,7 +2849,7 @@
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="20"/>
+      <c r="A145" s="19"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -2848,7 +2865,7 @@
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="20"/>
+      <c r="A146" s="19"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -2864,7 +2881,7 @@
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="20"/>
+      <c r="A147" s="19"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -2880,7 +2897,7 @@
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="20"/>
+      <c r="A148" s="19"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -2896,7 +2913,7 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="20"/>
+      <c r="A149" s="19"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -2912,7 +2929,7 @@
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="20"/>
+      <c r="A150" s="19"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -2928,7 +2945,7 @@
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="20"/>
+      <c r="A151" s="19"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -2944,7 +2961,7 @@
       <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="20"/>
+      <c r="A152" s="19"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -2960,7 +2977,7 @@
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="20"/>
+      <c r="A153" s="19"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -2976,7 +2993,7 @@
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="20"/>
+      <c r="A154" s="19"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -2992,7 +3009,7 @@
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A155" s="20"/>
+      <c r="A155" s="19"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3008,7 +3025,7 @@
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A156" s="20"/>
+      <c r="A156" s="19"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3024,7 +3041,7 @@
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="20"/>
+      <c r="A157" s="19"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3040,7 +3057,7 @@
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="20"/>
+      <c r="A158" s="19"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3056,7 +3073,7 @@
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="20"/>
+      <c r="A159" s="19"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3072,7 +3089,7 @@
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
+      <c r="A160" s="19"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3088,7 +3105,7 @@
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A161" s="20"/>
+      <c r="A161" s="19"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3104,7 +3121,7 @@
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="20"/>
+      <c r="A162" s="19"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3120,7 +3137,7 @@
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="20"/>
+      <c r="A163" s="19"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3136,7 +3153,7 @@
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="20"/>
+      <c r="A164" s="19"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3152,7 +3169,7 @@
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="20"/>
+      <c r="A165" s="19"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3168,7 +3185,7 @@
       <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A166" s="20"/>
+      <c r="A166" s="19"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3184,7 +3201,7 @@
       <c r="N166" s="1"/>
     </row>
     <row r="167" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="20"/>
+      <c r="A167" s="19"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3200,7 +3217,7 @@
       <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="20"/>
+      <c r="A168" s="19"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3216,7 +3233,7 @@
       <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="20"/>
+      <c r="A169" s="19"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3232,7 +3249,7 @@
       <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="20"/>
+      <c r="A170" s="19"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3248,7 +3265,7 @@
       <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="20"/>
+      <c r="A171" s="19"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3264,7 +3281,7 @@
       <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="20"/>
+      <c r="A172" s="19"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3280,7 +3297,7 @@
       <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="20"/>
+      <c r="A173" s="19"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3296,7 +3313,7 @@
       <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="20"/>
+      <c r="A174" s="19"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3312,7 +3329,7 @@
       <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="20"/>
+      <c r="A175" s="19"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3328,7 +3345,7 @@
       <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="20"/>
+      <c r="A176" s="19"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3344,7 +3361,7 @@
       <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="20"/>
+      <c r="A177" s="19"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3360,7 +3377,7 @@
       <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="20"/>
+      <c r="A178" s="19"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3376,7 +3393,7 @@
       <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="20"/>
+      <c r="A179" s="19"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3392,7 +3409,7 @@
       <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="20"/>
+      <c r="A180" s="19"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3408,7 +3425,7 @@
       <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="20"/>
+      <c r="A181" s="19"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3424,7 +3441,7 @@
       <c r="N181" s="1"/>
     </row>
     <row r="182" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="20"/>
+      <c r="A182" s="19"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3440,7 +3457,7 @@
       <c r="N182" s="1"/>
     </row>
     <row r="183" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="20"/>
+      <c r="A183" s="19"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3456,7 +3473,7 @@
       <c r="N183" s="1"/>
     </row>
     <row r="184" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="20"/>
+      <c r="A184" s="19"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -3472,7 +3489,7 @@
       <c r="N184" s="1"/>
     </row>
     <row r="188" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="20"/>
+      <c r="A188" s="19"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -3488,7 +3505,7 @@
       <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="20"/>
+      <c r="A189" s="19"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -3504,7 +3521,7 @@
       <c r="N189" s="1"/>
     </row>
     <row r="190" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="20"/>
+      <c r="A190" s="19"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -3520,7 +3537,7 @@
       <c r="N190" s="1"/>
     </row>
     <row r="191" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="20"/>
+      <c r="A191" s="19"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3536,7 +3553,7 @@
       <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="20"/>
+      <c r="A192" s="19"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3552,7 +3569,7 @@
       <c r="N192" s="1"/>
     </row>
     <row r="193" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="20"/>
+      <c r="A193" s="19"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3568,7 +3585,7 @@
       <c r="N193" s="1"/>
     </row>
     <row r="194" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="20"/>
+      <c r="A194" s="19"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3584,7 +3601,7 @@
       <c r="N194" s="1"/>
     </row>
     <row r="195" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="20"/>
+      <c r="A195" s="19"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3600,7 +3617,7 @@
       <c r="N195" s="1"/>
     </row>
     <row r="196" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="20"/>
+      <c r="A196" s="19"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3616,7 +3633,7 @@
       <c r="N196" s="1"/>
     </row>
     <row r="197" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="20"/>
+      <c r="A197" s="19"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3632,7 +3649,7 @@
       <c r="N197" s="1"/>
     </row>
     <row r="198" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="20"/>
+      <c r="A198" s="19"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3648,7 +3665,7 @@
       <c r="N198" s="1"/>
     </row>
     <row r="199" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="20"/>
+      <c r="A199" s="19"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3664,7 +3681,7 @@
       <c r="N199" s="1"/>
     </row>
     <row r="200" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="20"/>
+      <c r="A200" s="19"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3680,7 +3697,7 @@
       <c r="N200" s="1"/>
     </row>
     <row r="201" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="20"/>
+      <c r="A201" s="19"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -3696,7 +3713,7 @@
       <c r="N201" s="1"/>
     </row>
     <row r="202" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="20"/>
+      <c r="A202" s="19"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -3712,7 +3729,7 @@
       <c r="N202" s="1"/>
     </row>
     <row r="203" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="20"/>
+      <c r="A203" s="19"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -3728,7 +3745,7 @@
       <c r="N203" s="1"/>
     </row>
     <row r="204" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="20"/>
+      <c r="A204" s="19"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -3744,7 +3761,7 @@
       <c r="N204" s="1"/>
     </row>
     <row r="205" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="20"/>
+      <c r="A205" s="19"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -3760,7 +3777,7 @@
       <c r="N205" s="1"/>
     </row>
     <row r="206" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="20"/>
+      <c r="A206" s="19"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -3776,7 +3793,7 @@
       <c r="N206" s="1"/>
     </row>
     <row r="207" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="20"/>
+      <c r="A207" s="19"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -3792,7 +3809,7 @@
       <c r="N207" s="1"/>
     </row>
     <row r="208" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="20"/>
+      <c r="A208" s="19"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -3808,7 +3825,7 @@
       <c r="N208" s="1"/>
     </row>
     <row r="209" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="20"/>
+      <c r="A209" s="19"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -3824,7 +3841,7 @@
       <c r="N209" s="1"/>
     </row>
     <row r="210" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="20"/>
+      <c r="A210" s="19"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -3840,7 +3857,7 @@
       <c r="N210" s="1"/>
     </row>
     <row r="211" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="20"/>
+      <c r="A211" s="19"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -3856,7 +3873,7 @@
       <c r="N211" s="1"/>
     </row>
     <row r="212" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A212" s="20"/>
+      <c r="A212" s="19"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -3872,7 +3889,7 @@
       <c r="N212" s="1"/>
     </row>
     <row r="213" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="20"/>
+      <c r="A213" s="19"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -3888,7 +3905,7 @@
       <c r="N213" s="1"/>
     </row>
     <row r="214" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="20"/>
+      <c r="A214" s="19"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -3904,7 +3921,7 @@
       <c r="N214" s="1"/>
     </row>
     <row r="215" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="20"/>
+      <c r="A215" s="19"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -3920,7 +3937,7 @@
       <c r="N215" s="1"/>
     </row>
     <row r="216" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="20"/>
+      <c r="A216" s="19"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -3936,7 +3953,7 @@
       <c r="N216" s="1"/>
     </row>
     <row r="217" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="20"/>
+      <c r="A217" s="19"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -3952,7 +3969,7 @@
       <c r="N217" s="1"/>
     </row>
     <row r="218" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="20"/>
+      <c r="A218" s="19"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -3968,7 +3985,7 @@
       <c r="N218" s="1"/>
     </row>
     <row r="219" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="20"/>
+      <c r="A219" s="19"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -3984,7 +4001,7 @@
       <c r="N219" s="1"/>
     </row>
     <row r="220" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="20"/>
+      <c r="A220" s="19"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -4000,7 +4017,7 @@
       <c r="N220" s="1"/>
     </row>
     <row r="221" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A221" s="20"/>
+      <c r="A221" s="19"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -4016,7 +4033,7 @@
       <c r="N221" s="1"/>
     </row>
     <row r="222" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="20"/>
+      <c r="A222" s="19"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -4032,7 +4049,7 @@
       <c r="N222" s="1"/>
     </row>
     <row r="223" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="20"/>
+      <c r="A223" s="19"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -4048,7 +4065,7 @@
       <c r="N223" s="1"/>
     </row>
     <row r="224" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="20"/>
+      <c r="A224" s="19"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4064,7 +4081,7 @@
       <c r="N224" s="1"/>
     </row>
     <row r="225" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="20"/>
+      <c r="A225" s="19"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -4080,7 +4097,7 @@
       <c r="N225" s="1"/>
     </row>
     <row r="226" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="20"/>
+      <c r="A226" s="19"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -4096,7 +4113,7 @@
       <c r="N226" s="1"/>
     </row>
     <row r="227" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="20"/>
+      <c r="A227" s="19"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4112,7 +4129,7 @@
       <c r="N227" s="1"/>
     </row>
     <row r="228" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="20"/>
+      <c r="A228" s="19"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -4128,7 +4145,7 @@
       <c r="N228" s="1"/>
     </row>
     <row r="229" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="20"/>
+      <c r="A229" s="19"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -4144,7 +4161,7 @@
       <c r="N229" s="1"/>
     </row>
     <row r="230" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="20"/>
+      <c r="A230" s="19"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -4160,7 +4177,7 @@
       <c r="N230" s="1"/>
     </row>
     <row r="231" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A231" s="20"/>
+      <c r="A231" s="19"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4176,7 +4193,7 @@
       <c r="N231" s="1"/>
     </row>
     <row r="232" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A232" s="20"/>
+      <c r="A232" s="19"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4192,7 +4209,7 @@
       <c r="N232" s="1"/>
     </row>
     <row r="233" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A233" s="20"/>
+      <c r="A233" s="19"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4208,7 +4225,7 @@
       <c r="N233" s="1"/>
     </row>
     <row r="234" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A234" s="20"/>
+      <c r="A234" s="19"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4224,7 +4241,7 @@
       <c r="N234" s="1"/>
     </row>
     <row r="235" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="20"/>
+      <c r="A235" s="19"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4240,7 +4257,7 @@
       <c r="N235" s="1"/>
     </row>
     <row r="236" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="20"/>
+      <c r="A236" s="19"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4256,7 +4273,7 @@
       <c r="N236" s="1"/>
     </row>
     <row r="237" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="20"/>
+      <c r="A237" s="19"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4272,7 +4289,7 @@
       <c r="N237" s="1"/>
     </row>
     <row r="238" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="20"/>
+      <c r="A238" s="19"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4288,7 +4305,7 @@
       <c r="N238" s="1"/>
     </row>
     <row r="239" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="20"/>
+      <c r="A239" s="19"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4304,7 +4321,7 @@
       <c r="N239" s="1"/>
     </row>
     <row r="240" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="20"/>
+      <c r="A240" s="19"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4320,7 +4337,7 @@
       <c r="N240" s="1"/>
     </row>
     <row r="241" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="20"/>
+      <c r="A241" s="19"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4336,7 +4353,7 @@
       <c r="N241" s="1"/>
     </row>
     <row r="242" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="20"/>
+      <c r="A242" s="19"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4352,7 +4369,7 @@
       <c r="N242" s="1"/>
     </row>
     <row r="243" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="20"/>
+      <c r="A243" s="19"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -4368,7 +4385,7 @@
       <c r="N243" s="1"/>
     </row>
     <row r="244" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="20"/>
+      <c r="A244" s="19"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4384,7 +4401,7 @@
       <c r="N244" s="1"/>
     </row>
     <row r="245" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="20"/>
+      <c r="A245" s="19"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -4400,7 +4417,7 @@
       <c r="N245" s="1"/>
     </row>
     <row r="246" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="20"/>
+      <c r="A246" s="19"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -4416,7 +4433,7 @@
       <c r="N246" s="1"/>
     </row>
     <row r="247" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="20"/>
+      <c r="A247" s="19"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -4432,7 +4449,7 @@
       <c r="N247" s="1"/>
     </row>
     <row r="248" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="20"/>
+      <c r="A248" s="19"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -4448,7 +4465,7 @@
       <c r="N248" s="1"/>
     </row>
     <row r="249" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="20"/>
+      <c r="A249" s="19"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -4464,7 +4481,7 @@
       <c r="N249" s="1"/>
     </row>
     <row r="250" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="20"/>
+      <c r="A250" s="19"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -4480,7 +4497,7 @@
       <c r="N250" s="1"/>
     </row>
     <row r="251" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="20"/>
+      <c r="A251" s="19"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -4496,7 +4513,7 @@
       <c r="N251" s="1"/>
     </row>
     <row r="252" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="20"/>
+      <c r="A252" s="19"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -4512,7 +4529,7 @@
       <c r="N252" s="1"/>
     </row>
     <row r="253" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="20"/>
+      <c r="A253" s="19"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -4528,7 +4545,7 @@
       <c r="N253" s="1"/>
     </row>
     <row r="254" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="20"/>
+      <c r="A254" s="19"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -4544,7 +4561,7 @@
       <c r="N254" s="1"/>
     </row>
     <row r="255" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="20"/>
+      <c r="A255" s="19"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -4560,7 +4577,7 @@
       <c r="N255" s="1"/>
     </row>
     <row r="256" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="20"/>
+      <c r="A256" s="19"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -4576,7 +4593,7 @@
       <c r="N256" s="1"/>
     </row>
     <row r="257" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="20"/>
+      <c r="A257" s="19"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -4592,7 +4609,7 @@
       <c r="N257" s="1"/>
     </row>
     <row r="258" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="20"/>
+      <c r="A258" s="19"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -4608,7 +4625,7 @@
       <c r="N258" s="1"/>
     </row>
     <row r="259" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="20"/>
+      <c r="A259" s="19"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -4624,7 +4641,7 @@
       <c r="N259" s="1"/>
     </row>
     <row r="260" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="20"/>
+      <c r="A260" s="19"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -4640,7 +4657,7 @@
       <c r="N260" s="1"/>
     </row>
     <row r="261" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="20"/>
+      <c r="A261" s="19"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4656,7 +4673,7 @@
       <c r="N261" s="1"/>
     </row>
     <row r="262" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="20"/>
+      <c r="A262" s="19"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4672,7 +4689,7 @@
       <c r="N262" s="1"/>
     </row>
     <row r="263" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="20"/>
+      <c r="A263" s="19"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4688,7 +4705,7 @@
       <c r="N263" s="1"/>
     </row>
     <row r="264" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="20"/>
+      <c r="A264" s="19"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4704,7 +4721,7 @@
       <c r="N264" s="1"/>
     </row>
     <row r="265" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="20"/>
+      <c r="A265" s="19"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4720,7 +4737,7 @@
       <c r="N265" s="1"/>
     </row>
     <row r="266" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="20"/>
+      <c r="A266" s="19"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4736,7 +4753,7 @@
       <c r="N266" s="1"/>
     </row>
     <row r="267" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="20"/>
+      <c r="A267" s="19"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4752,7 +4769,7 @@
       <c r="N267" s="1"/>
     </row>
     <row r="268" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="20"/>
+      <c r="A268" s="19"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4768,7 +4785,7 @@
       <c r="N268" s="1"/>
     </row>
     <row r="269" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="20"/>
+      <c r="A269" s="19"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4784,7 +4801,7 @@
       <c r="N269" s="1"/>
     </row>
     <row r="270" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="20"/>
+      <c r="A270" s="19"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4800,7 +4817,7 @@
       <c r="N270" s="1"/>
     </row>
     <row r="271" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="20"/>
+      <c r="A271" s="19"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4816,7 +4833,7 @@
       <c r="N271" s="1"/>
     </row>
     <row r="272" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="20"/>
+      <c r="A272" s="19"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4832,7 +4849,7 @@
       <c r="N272" s="1"/>
     </row>
     <row r="273" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="20"/>
+      <c r="A273" s="19"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -4848,7 +4865,7 @@
       <c r="N273" s="1"/>
     </row>
     <row r="274" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="20"/>
+      <c r="A274" s="19"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -4864,7 +4881,7 @@
       <c r="N274" s="1"/>
     </row>
     <row r="275" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="20"/>
+      <c r="A275" s="19"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -4880,7 +4897,7 @@
       <c r="N275" s="1"/>
     </row>
     <row r="276" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="20"/>
+      <c r="A276" s="19"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -4896,7 +4913,7 @@
       <c r="N276" s="1"/>
     </row>
     <row r="277" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="20"/>
+      <c r="A277" s="19"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -4912,7 +4929,7 @@
       <c r="N277" s="1"/>
     </row>
     <row r="278" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="20"/>
+      <c r="A278" s="19"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -4928,7 +4945,7 @@
       <c r="N278" s="1"/>
     </row>
     <row r="279" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="20"/>
+      <c r="A279" s="19"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -4944,7 +4961,7 @@
       <c r="N279" s="1"/>
     </row>
     <row r="280" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="20"/>
+      <c r="A280" s="19"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -4960,7 +4977,7 @@
       <c r="N280" s="1"/>
     </row>
     <row r="281" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="20"/>
+      <c r="A281" s="19"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -4976,7 +4993,7 @@
       <c r="N281" s="1"/>
     </row>
     <row r="282" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="20"/>
+      <c r="A282" s="19"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -4992,7 +5009,7 @@
       <c r="N282" s="1"/>
     </row>
     <row r="283" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="20"/>
+      <c r="A283" s="19"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -5008,7 +5025,7 @@
       <c r="N283" s="1"/>
     </row>
     <row r="284" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="20"/>
+      <c r="A284" s="19"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -5024,7 +5041,7 @@
       <c r="N284" s="1"/>
     </row>
     <row r="285" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="20"/>
+      <c r="A285" s="19"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -5040,7 +5057,7 @@
       <c r="N285" s="1"/>
     </row>
     <row r="286" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="20"/>
+      <c r="A286" s="19"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -5056,7 +5073,7 @@
       <c r="N286" s="1"/>
     </row>
     <row r="287" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="20"/>
+      <c r="A287" s="19"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -5072,7 +5089,7 @@
       <c r="N287" s="1"/>
     </row>
     <row r="288" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="20"/>
+      <c r="A288" s="19"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -5088,7 +5105,7 @@
       <c r="N288" s="1"/>
     </row>
     <row r="289" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="20"/>
+      <c r="A289" s="19"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -5104,7 +5121,7 @@
       <c r="N289" s="1"/>
     </row>
     <row r="290" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="20"/>
+      <c r="A290" s="19"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -5120,7 +5137,7 @@
       <c r="N290" s="1"/>
     </row>
     <row r="291" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="20"/>
+      <c r="A291" s="19"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -5136,7 +5153,7 @@
       <c r="N291" s="1"/>
     </row>
     <row r="292" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="20"/>
+      <c r="A292" s="19"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -5152,7 +5169,7 @@
       <c r="N292" s="1"/>
     </row>
     <row r="293" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A293" s="20"/>
+      <c r="A293" s="19"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -5168,7 +5185,7 @@
       <c r="N293" s="1"/>
     </row>
     <row r="294" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A294" s="20"/>
+      <c r="A294" s="19"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -5184,7 +5201,7 @@
       <c r="N294" s="1"/>
     </row>
     <row r="295" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A295" s="20"/>
+      <c r="A295" s="19"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -5200,7 +5217,7 @@
       <c r="N295" s="1"/>
     </row>
     <row r="296" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A296" s="20"/>
+      <c r="A296" s="19"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -5216,7 +5233,7 @@
       <c r="N296" s="1"/>
     </row>
     <row r="297" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A297" s="20"/>
+      <c r="A297" s="19"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -5232,7 +5249,7 @@
       <c r="N297" s="1"/>
     </row>
     <row r="298" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A298" s="20"/>
+      <c r="A298" s="19"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -5248,7 +5265,7 @@
       <c r="N298" s="1"/>
     </row>
     <row r="299" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A299" s="20"/>
+      <c r="A299" s="19"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -5264,7 +5281,7 @@
       <c r="N299" s="1"/>
     </row>
     <row r="300" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A300" s="20"/>
+      <c r="A300" s="19"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -5280,7 +5297,7 @@
       <c r="N300" s="1"/>
     </row>
     <row r="301" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A301" s="20"/>
+      <c r="A301" s="19"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -5296,7 +5313,7 @@
       <c r="N301" s="1"/>
     </row>
     <row r="302" spans="1:14" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="20"/>
+      <c r="A302" s="19"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5312,7 +5329,7 @@
       <c r="N302" s="1"/>
     </row>
     <row r="303" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A303" s="20"/>
+      <c r="A303" s="19"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
@@ -5328,7 +5345,7 @@
       <c r="N303" s="1"/>
     </row>
     <row r="304" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A304" s="20"/>
+      <c r="A304" s="19"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
@@ -5344,7 +5361,7 @@
       <c r="N304" s="1"/>
     </row>
     <row r="305" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A305" s="20"/>
+      <c r="A305" s="19"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
@@ -5360,7 +5377,7 @@
       <c r="N305" s="1"/>
     </row>
     <row r="306" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A306" s="20"/>
+      <c r="A306" s="19"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
@@ -5376,7 +5393,7 @@
       <c r="N306" s="1"/>
     </row>
     <row r="307" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A307" s="20"/>
+      <c r="A307" s="19"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
@@ -5392,7 +5409,7 @@
       <c r="N307" s="1"/>
     </row>
     <row r="308" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A308" s="20"/>
+      <c r="A308" s="19"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -5408,7 +5425,7 @@
       <c r="N308" s="1"/>
     </row>
     <row r="309" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A309" s="20"/>
+      <c r="A309" s="19"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
@@ -5424,7 +5441,7 @@
       <c r="N309" s="1"/>
     </row>
     <row r="310" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A310" s="20"/>
+      <c r="A310" s="19"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
@@ -5440,7 +5457,7 @@
       <c r="N310" s="1"/>
     </row>
     <row r="311" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="20"/>
+      <c r="A311" s="19"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
@@ -5456,7 +5473,7 @@
       <c r="N311" s="1"/>
     </row>
     <row r="312" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A312" s="20"/>
+      <c r="A312" s="19"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
@@ -5472,7 +5489,7 @@
       <c r="N312" s="1"/>
     </row>
     <row r="313" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A313" s="20"/>
+      <c r="A313" s="19"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
@@ -5488,7 +5505,7 @@
       <c r="N313" s="1"/>
     </row>
     <row r="314" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A314" s="20"/>
+      <c r="A314" s="19"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
@@ -5504,7 +5521,7 @@
       <c r="N314" s="1"/>
     </row>
     <row r="315" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A315" s="20"/>
+      <c r="A315" s="19"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -5520,7 +5537,7 @@
       <c r="N315" s="1"/>
     </row>
     <row r="316" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A316" s="20"/>
+      <c r="A316" s="19"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -5536,7 +5553,7 @@
       <c r="N316" s="1"/>
     </row>
     <row r="317" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A317" s="20"/>
+      <c r="A317" s="19"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -5552,7 +5569,7 @@
       <c r="N317" s="1"/>
     </row>
     <row r="318" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A318" s="20"/>
+      <c r="A318" s="19"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -5568,7 +5585,7 @@
       <c r="N318" s="1"/>
     </row>
     <row r="319" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="20"/>
+      <c r="A319" s="19"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -5582,16 +5599,16 @@
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
-      <c r="O319" s="26"/>
+      <c r="O319" s="25"/>
     </row>
     <row r="320" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O320" s="27"/>
+      <c r="O320" s="26"/>
     </row>
     <row r="321" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="O321" s="7"/>
     </row>
     <row r="322" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="20"/>
+      <c r="A322" s="19"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -5607,7 +5624,7 @@
       <c r="N322" s="1"/>
     </row>
     <row r="323" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="20"/>
+      <c r="A323" s="19"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -5623,7 +5640,7 @@
       <c r="N323" s="1"/>
     </row>
     <row r="324" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="20"/>
+      <c r="A324" s="19"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -5639,7 +5656,7 @@
       <c r="N324" s="1"/>
     </row>
     <row r="325" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="20"/>
+      <c r="A325" s="19"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -5655,7 +5672,7 @@
       <c r="N325" s="1"/>
     </row>
     <row r="326" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="20"/>
+      <c r="A326" s="19"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -5671,7 +5688,7 @@
       <c r="N326" s="1"/>
     </row>
     <row r="327" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="20"/>
+      <c r="A327" s="19"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -5687,7 +5704,7 @@
       <c r="N327" s="1"/>
     </row>
     <row r="328" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="20"/>
+      <c r="A328" s="19"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -5703,7 +5720,7 @@
       <c r="N328" s="1"/>
     </row>
     <row r="329" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="20"/>
+      <c r="A329" s="19"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -5719,7 +5736,7 @@
       <c r="N329" s="1"/>
     </row>
     <row r="330" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="20"/>
+      <c r="A330" s="19"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -5735,7 +5752,7 @@
       <c r="N330" s="1"/>
     </row>
     <row r="331" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="20"/>
+      <c r="A331" s="19"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -5751,7 +5768,7 @@
       <c r="N331" s="1"/>
     </row>
     <row r="332" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="20"/>
+      <c r="A332" s="19"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -5767,7 +5784,7 @@
       <c r="N332" s="1"/>
     </row>
     <row r="333" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="20"/>
+      <c r="A333" s="19"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -5783,7 +5800,7 @@
       <c r="N333" s="1"/>
     </row>
     <row r="334" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="20"/>
+      <c r="A334" s="19"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -5799,7 +5816,7 @@
       <c r="N334" s="1"/>
     </row>
     <row r="335" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="20"/>
+      <c r="A335" s="19"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -5815,7 +5832,7 @@
       <c r="N335" s="1"/>
     </row>
     <row r="336" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="20"/>
+      <c r="A336" s="19"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
@@ -5831,7 +5848,7 @@
       <c r="N336" s="1"/>
     </row>
     <row r="337" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="20"/>
+      <c r="A337" s="19"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
@@ -5847,7 +5864,7 @@
       <c r="N337" s="1"/>
     </row>
     <row r="338" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A338" s="20"/>
+      <c r="A338" s="19"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -5863,7 +5880,7 @@
       <c r="N338" s="1"/>
     </row>
     <row r="339" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A339" s="20"/>
+      <c r="A339" s="19"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -5879,7 +5896,7 @@
       <c r="N339" s="1"/>
     </row>
     <row r="340" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A340" s="20"/>
+      <c r="A340" s="19"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -5895,7 +5912,7 @@
       <c r="N340" s="1"/>
     </row>
     <row r="341" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A341" s="20"/>
+      <c r="A341" s="19"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -5911,7 +5928,7 @@
       <c r="N341" s="1"/>
     </row>
     <row r="342" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A342" s="20"/>
+      <c r="A342" s="19"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -5927,7 +5944,7 @@
       <c r="N342" s="1"/>
     </row>
     <row r="343" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A343" s="20"/>
+      <c r="A343" s="19"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -5943,7 +5960,7 @@
       <c r="N343" s="1"/>
     </row>
     <row r="344" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A344" s="20"/>
+      <c r="A344" s="19"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -5959,7 +5976,7 @@
       <c r="N344" s="1"/>
     </row>
     <row r="345" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A345" s="20"/>
+      <c r="A345" s="19"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -5975,7 +5992,7 @@
       <c r="N345" s="1"/>
     </row>
     <row r="346" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A346" s="20"/>
+      <c r="A346" s="19"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -5991,7 +6008,7 @@
       <c r="N346" s="1"/>
     </row>
     <row r="347" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A347" s="20"/>
+      <c r="A347" s="19"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -6007,7 +6024,7 @@
       <c r="N347" s="1"/>
     </row>
     <row r="348" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A348" s="20"/>
+      <c r="A348" s="19"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -6023,7 +6040,7 @@
       <c r="N348" s="1"/>
     </row>
     <row r="349" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A349" s="20"/>
+      <c r="A349" s="19"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -6039,7 +6056,7 @@
       <c r="N349" s="1"/>
     </row>
     <row r="350" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A350" s="20"/>
+      <c r="A350" s="19"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -6055,7 +6072,7 @@
       <c r="N350" s="1"/>
     </row>
     <row r="351" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A351" s="20"/>
+      <c r="A351" s="19"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -6071,7 +6088,7 @@
       <c r="N351" s="1"/>
     </row>
     <row r="352" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A352" s="20"/>
+      <c r="A352" s="19"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -6087,7 +6104,7 @@
       <c r="N352" s="1"/>
     </row>
     <row r="353" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="20"/>
+      <c r="A353" s="19"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -6103,7 +6120,7 @@
       <c r="N353" s="1"/>
     </row>
     <row r="354" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A354" s="20"/>
+      <c r="A354" s="19"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -6119,7 +6136,7 @@
       <c r="N354" s="1"/>
     </row>
     <row r="355" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A355" s="20"/>
+      <c r="A355" s="19"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -6135,7 +6152,7 @@
       <c r="N355" s="1"/>
     </row>
     <row r="356" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A356" s="20"/>
+      <c r="A356" s="19"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -6151,7 +6168,7 @@
       <c r="N356" s="1"/>
     </row>
     <row r="357" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A357" s="20"/>
+      <c r="A357" s="19"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -6167,7 +6184,7 @@
       <c r="N357" s="1"/>
     </row>
     <row r="358" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A358" s="20"/>
+      <c r="A358" s="19"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -6183,7 +6200,7 @@
       <c r="N358" s="1"/>
     </row>
     <row r="359" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A359" s="20"/>
+      <c r="A359" s="19"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -6199,7 +6216,7 @@
       <c r="N359" s="1"/>
     </row>
     <row r="360" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A360" s="20"/>
+      <c r="A360" s="19"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -6215,7 +6232,7 @@
       <c r="N360" s="1"/>
     </row>
     <row r="361" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A361" s="20"/>
+      <c r="A361" s="19"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -6231,7 +6248,7 @@
       <c r="N361" s="1"/>
     </row>
     <row r="362" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A362" s="20"/>
+      <c r="A362" s="19"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -6247,7 +6264,7 @@
       <c r="N362" s="1"/>
     </row>
     <row r="363" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A363" s="20"/>
+      <c r="A363" s="19"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -6263,7 +6280,7 @@
       <c r="N363" s="1"/>
     </row>
     <row r="364" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A364" s="20"/>
+      <c r="A364" s="19"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -6279,7 +6296,7 @@
       <c r="N364" s="1"/>
     </row>
     <row r="365" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A365" s="20"/>
+      <c r="A365" s="19"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -6295,7 +6312,7 @@
       <c r="N365" s="1"/>
     </row>
     <row r="366" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A366" s="20"/>
+      <c r="A366" s="19"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -6311,7 +6328,7 @@
       <c r="N366" s="1"/>
     </row>
     <row r="367" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A367" s="20"/>
+      <c r="A367" s="19"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -6327,7 +6344,7 @@
       <c r="N367" s="1"/>
     </row>
     <row r="368" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A368" s="20"/>
+      <c r="A368" s="19"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -6343,7 +6360,7 @@
       <c r="N368" s="1"/>
     </row>
     <row r="369" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="20"/>
+      <c r="A369" s="19"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -6359,7 +6376,7 @@
       <c r="N369" s="1"/>
     </row>
     <row r="370" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A370" s="20"/>
+      <c r="A370" s="19"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -6375,7 +6392,7 @@
       <c r="N370" s="1"/>
     </row>
     <row r="371" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A371" s="20"/>
+      <c r="A371" s="19"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -6391,7 +6408,7 @@
       <c r="N371" s="1"/>
     </row>
     <row r="372" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="20"/>
+      <c r="A372" s="19"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -6407,7 +6424,7 @@
       <c r="N372" s="1"/>
     </row>
     <row r="373" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A373" s="20"/>
+      <c r="A373" s="19"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -6423,7 +6440,7 @@
       <c r="N373" s="1"/>
     </row>
     <row r="374" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A374" s="20"/>
+      <c r="A374" s="19"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -6439,7 +6456,7 @@
       <c r="N374" s="1"/>
     </row>
     <row r="375" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A375" s="20"/>
+      <c r="A375" s="19"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -6455,7 +6472,7 @@
       <c r="N375" s="1"/>
     </row>
     <row r="376" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A376" s="20"/>
+      <c r="A376" s="19"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -6471,7 +6488,7 @@
       <c r="N376" s="1"/>
     </row>
     <row r="377" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A377" s="20"/>
+      <c r="A377" s="19"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -6487,7 +6504,7 @@
       <c r="N377" s="1"/>
     </row>
     <row r="378" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A378" s="20"/>
+      <c r="A378" s="19"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -6503,7 +6520,7 @@
       <c r="N378" s="1"/>
     </row>
     <row r="379" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="20"/>
+      <c r="A379" s="19"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -6519,7 +6536,7 @@
       <c r="N379" s="1"/>
     </row>
     <row r="380" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A380" s="20"/>
+      <c r="A380" s="19"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -6535,7 +6552,7 @@
       <c r="N380" s="1"/>
     </row>
     <row r="381" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A381" s="20"/>
+      <c r="A381" s="19"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -6551,7 +6568,7 @@
       <c r="N381" s="1"/>
     </row>
     <row r="382" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A382" s="20"/>
+      <c r="A382" s="19"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -6567,7 +6584,7 @@
       <c r="N382" s="1"/>
     </row>
     <row r="383" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A383" s="20"/>
+      <c r="A383" s="19"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -6583,7 +6600,7 @@
       <c r="N383" s="1"/>
     </row>
     <row r="384" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A384" s="20"/>
+      <c r="A384" s="19"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -6599,7 +6616,7 @@
       <c r="N384" s="1"/>
     </row>
     <row r="385" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A385" s="20"/>
+      <c r="A385" s="19"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -6615,7 +6632,7 @@
       <c r="N385" s="1"/>
     </row>
     <row r="386" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A386" s="20"/>
+      <c r="A386" s="19"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -6631,7 +6648,7 @@
       <c r="N386" s="1"/>
     </row>
     <row r="387" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A387" s="20"/>
+      <c r="A387" s="19"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -6647,7 +6664,7 @@
       <c r="N387" s="1"/>
     </row>
     <row r="388" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A388" s="20"/>
+      <c r="A388" s="19"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -6663,7 +6680,7 @@
       <c r="N388" s="1"/>
     </row>
     <row r="389" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A389" s="20"/>
+      <c r="A389" s="19"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -6679,7 +6696,7 @@
       <c r="N389" s="1"/>
     </row>
     <row r="390" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A390" s="20"/>
+      <c r="A390" s="19"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -6695,7 +6712,7 @@
       <c r="N390" s="1"/>
     </row>
     <row r="391" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A391" s="20"/>
+      <c r="A391" s="19"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -6711,7 +6728,7 @@
       <c r="N391" s="1"/>
     </row>
     <row r="392" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A392" s="20"/>
+      <c r="A392" s="19"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -6727,7 +6744,7 @@
       <c r="N392" s="1"/>
     </row>
     <row r="393" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A393" s="20"/>
+      <c r="A393" s="19"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -6743,7 +6760,7 @@
       <c r="N393" s="1"/>
     </row>
     <row r="394" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A394" s="20"/>
+      <c r="A394" s="19"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -6759,7 +6776,7 @@
       <c r="N394" s="1"/>
     </row>
     <row r="395" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A395" s="20"/>
+      <c r="A395" s="19"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -6775,7 +6792,7 @@
       <c r="N395" s="1"/>
     </row>
     <row r="396" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A396" s="20"/>
+      <c r="A396" s="19"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -6791,7 +6808,7 @@
       <c r="N396" s="1"/>
     </row>
     <row r="397" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A397" s="20"/>
+      <c r="A397" s="19"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -6807,7 +6824,7 @@
       <c r="N397" s="1"/>
     </row>
     <row r="398" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A398" s="20"/>
+      <c r="A398" s="19"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -6823,7 +6840,7 @@
       <c r="N398" s="1"/>
     </row>
     <row r="399" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A399" s="20"/>
+      <c r="A399" s="19"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -6839,7 +6856,7 @@
       <c r="N399" s="1"/>
     </row>
     <row r="400" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A400" s="20"/>
+      <c r="A400" s="19"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -6855,7 +6872,7 @@
       <c r="N400" s="1"/>
     </row>
     <row r="401" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A401" s="20"/>
+      <c r="A401" s="19"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -6871,7 +6888,7 @@
       <c r="N401" s="1"/>
     </row>
     <row r="402" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A402" s="20"/>
+      <c r="A402" s="19"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -6887,7 +6904,7 @@
       <c r="N402" s="1"/>
     </row>
     <row r="403" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A403" s="20"/>
+      <c r="A403" s="19"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -6903,7 +6920,7 @@
       <c r="N403" s="1"/>
     </row>
     <row r="404" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A404" s="20"/>
+      <c r="A404" s="19"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -6919,7 +6936,7 @@
       <c r="N404" s="1"/>
     </row>
     <row r="405" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A405" s="20"/>
+      <c r="A405" s="19"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -6935,7 +6952,7 @@
       <c r="N405" s="1"/>
     </row>
     <row r="406" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A406" s="20"/>
+      <c r="A406" s="19"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -6951,7 +6968,7 @@
       <c r="N406" s="1"/>
     </row>
     <row r="407" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A407" s="20"/>
+      <c r="A407" s="19"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -6967,7 +6984,7 @@
       <c r="N407" s="1"/>
     </row>
     <row r="408" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A408" s="20"/>
+      <c r="A408" s="19"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -6983,7 +7000,7 @@
       <c r="N408" s="1"/>
     </row>
     <row r="409" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A409" s="20"/>
+      <c r="A409" s="19"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -6999,7 +7016,7 @@
       <c r="N409" s="1"/>
     </row>
     <row r="410" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A410" s="20"/>
+      <c r="A410" s="19"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -7015,7 +7032,7 @@
       <c r="N410" s="1"/>
     </row>
     <row r="411" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A411" s="20"/>
+      <c r="A411" s="19"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -7031,7 +7048,7 @@
       <c r="N411" s="1"/>
     </row>
     <row r="412" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A412" s="20"/>
+      <c r="A412" s="19"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -7047,7 +7064,7 @@
       <c r="N412" s="1"/>
     </row>
     <row r="413" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A413" s="20"/>
+      <c r="A413" s="19"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -7063,7 +7080,7 @@
       <c r="N413" s="1"/>
     </row>
     <row r="414" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A414" s="20"/>
+      <c r="A414" s="19"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -7079,7 +7096,7 @@
       <c r="N414" s="1"/>
     </row>
     <row r="415" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A415" s="20"/>
+      <c r="A415" s="19"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -7095,7 +7112,7 @@
       <c r="N415" s="1"/>
     </row>
     <row r="416" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A416" s="20"/>
+      <c r="A416" s="19"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -7111,7 +7128,7 @@
       <c r="N416" s="1"/>
     </row>
     <row r="417" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A417" s="20"/>
+      <c r="A417" s="19"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -7127,7 +7144,7 @@
       <c r="N417" s="1"/>
     </row>
     <row r="418" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A418" s="20"/>
+      <c r="A418" s="19"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -7143,7 +7160,7 @@
       <c r="N418" s="1"/>
     </row>
     <row r="419" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A419" s="20"/>
+      <c r="A419" s="19"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -7159,7 +7176,7 @@
       <c r="N419" s="1"/>
     </row>
     <row r="420" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A420" s="20"/>
+      <c r="A420" s="19"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -7175,7 +7192,7 @@
       <c r="N420" s="1"/>
     </row>
     <row r="421" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A421" s="20"/>
+      <c r="A421" s="19"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -7191,7 +7208,7 @@
       <c r="N421" s="1"/>
     </row>
     <row r="422" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A422" s="20"/>
+      <c r="A422" s="19"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -7207,7 +7224,7 @@
       <c r="N422" s="1"/>
     </row>
     <row r="423" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A423" s="20"/>
+      <c r="A423" s="19"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -7223,7 +7240,7 @@
       <c r="N423" s="1"/>
     </row>
     <row r="424" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A424" s="20"/>
+      <c r="A424" s="19"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -7239,7 +7256,7 @@
       <c r="N424" s="1"/>
     </row>
     <row r="425" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A425" s="20"/>
+      <c r="A425" s="19"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -7255,7 +7272,7 @@
       <c r="N425" s="1"/>
     </row>
     <row r="426" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A426" s="20"/>
+      <c r="A426" s="19"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -7271,7 +7288,7 @@
       <c r="N426" s="1"/>
     </row>
     <row r="427" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A427" s="20"/>
+      <c r="A427" s="19"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -7287,7 +7304,7 @@
       <c r="N427" s="1"/>
     </row>
     <row r="428" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A428" s="20"/>
+      <c r="A428" s="19"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -7303,7 +7320,7 @@
       <c r="N428" s="1"/>
     </row>
     <row r="429" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="20"/>
+      <c r="A429" s="19"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -7319,7 +7336,7 @@
       <c r="N429" s="1"/>
     </row>
     <row r="430" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A430" s="20"/>
+      <c r="A430" s="19"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -7335,7 +7352,7 @@
       <c r="N430" s="1"/>
     </row>
     <row r="431" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A431" s="20"/>
+      <c r="A431" s="19"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -7351,7 +7368,7 @@
       <c r="N431" s="1"/>
     </row>
     <row r="432" spans="1:14" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A432" s="20"/>
+      <c r="A432" s="19"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -7376,7 +7393,7 @@
       <c r="O435" s="7"/>
     </row>
     <row r="436" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A436" s="20"/>
+      <c r="A436" s="19"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -7710,7 +7727,7 @@
       <c r="O542" s="7"/>
     </row>
     <row r="543" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A543" s="20"/>
+      <c r="A543" s="19"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
       <c r="D543" s="1"/>
@@ -7726,7 +7743,7 @@
       <c r="N543" s="1"/>
     </row>
     <row r="544" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A544" s="20"/>
+      <c r="A544" s="19"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
@@ -7742,7 +7759,7 @@
       <c r="N544" s="1"/>
     </row>
     <row r="545" spans="1:15" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="20"/>
+      <c r="A545" s="19"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
       <c r="D545" s="1"/>
@@ -7759,7 +7776,7 @@
       <c r="O545" s="1"/>
     </row>
     <row r="546" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A546" s="20"/>
+      <c r="A546" s="19"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
       <c r="D546" s="1"/>
@@ -7776,7 +7793,7 @@
       <c r="O546" s="1"/>
     </row>
     <row r="547" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A547" s="20"/>
+      <c r="A547" s="19"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
       <c r="D547" s="1"/>
@@ -7793,7 +7810,7 @@
       <c r="O547" s="1"/>
     </row>
     <row r="548" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A548" s="20"/>
+      <c r="A548" s="19"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
       <c r="D548" s="1"/>
@@ -7809,7 +7826,7 @@
       <c r="N548" s="1"/>
     </row>
     <row r="549" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A549" s="20"/>
+      <c r="A549" s="19"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
       <c r="D549" s="1"/>
@@ -7829,7 +7846,7 @@
       <c r="O552" s="7"/>
     </row>
     <row r="553" spans="1:15" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A553" s="20"/>
+      <c r="A553" s="19"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
@@ -7857,7 +7874,8 @@
       <c r="O560" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A141:E141"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
